--- a/data/income_statement/1digit/total/B_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/B_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>B-Mining and quarrying</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>B-Mining and quarrying</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>14181377.85441</v>
+        <v>14182817.83435</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>18119403.68568</v>
+        <v>18119431.18604</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>24318091.58423</v>
+        <v>24322268.15791</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>26249636.27770999</v>
+        <v>26328435.83478</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>28357682.64785</v>
+        <v>28880699.28744</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>35532215.49972</v>
+        <v>29492455.03976999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>28165831.95051</v>
+        <v>29097688.87880999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>30543078.34154</v>
+        <v>30578951.50733</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>42284157.32312</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>56419633.46666</v>
+        <v>55362841.7615</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>65986304.64842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>66601619.64249001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>83111753.359</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>12139326.99145</v>
@@ -995,37 +906,42 @@
         <v>15064289.29947</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>20659118.38121</v>
+        <v>20663294.95489</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>22141797.64206</v>
+        <v>22203255.90519</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>23040099.2225</v>
+        <v>23503634.44817</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>30461193.13095</v>
+        <v>24111489.50921</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>23247827.61536999</v>
+        <v>23968739.27308</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>25038229.14940001</v>
+        <v>25068950.58857</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>34494556.68329999</v>
+        <v>34494556.6833</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>46059014.10796001</v>
+        <v>45000785.45438001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>54090150.52305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>54611074.8815</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>66061704.308</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1851736.61356</v>
@@ -1034,154 +950,174 @@
         <v>2833937.56556</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3265886.401949999</v>
+        <v>3265886.40195</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3773393.709650001</v>
+        <v>3789557.93694</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4940334.91028</v>
+        <v>4999493.80816</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4612538.291860002</v>
+        <v>4905336.411599999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4415512.385910001</v>
+        <v>4602675.44368</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4800994.595860001</v>
+        <v>4804962.69921</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>6892272.228719999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9253686.776360001</v>
+        <v>9254780.651369998</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10223146.52143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10312637.22278</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>15070058.625</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>190314.2494</v>
+        <v>191754.22934</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>221176.82065</v>
+        <v>221204.32101</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>393086.80107</v>
+        <v>393086.8010699999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>334444.926</v>
+        <v>335621.99265</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>377248.5150699999</v>
+        <v>377571.03111</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>458484.0769099999</v>
+        <v>475629.1189599999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>502491.94923</v>
+        <v>526274.16205</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>703854.5962799999</v>
+        <v>705038.2195499998</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>897328.4110999999</v>
+        <v>897328.4110999998</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1106932.58234</v>
+        <v>1107275.65575</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1673007.60394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1677907.53821</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1979990.426</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>323132.3176199999</v>
+        <v>323132.31762</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>414888.4230000001</v>
+        <v>414888.423</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>542109.9391700001</v>
+        <v>542109.9391699999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>663177.60938</v>
+        <v>664162.3213099999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>727544.2253700001</v>
+        <v>731889.73049</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8006543.61948</v>
+        <v>826845.13801</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>573452.7456500001</v>
+        <v>593446.3835899998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>642848.0098800001</v>
+        <v>643122.2943599999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>822546.1687799999</v>
+        <v>822546.1687800001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2296821.79458</v>
+        <v>1144883.30837</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1259397.78901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1274367.26563</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1069297.922</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>28222.98491</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>33297.97444999999</v>
+        <v>33297.97445</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>39152.69127</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>56880.88934</v>
+        <v>56932.61304</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>64578.71934</v>
+        <v>68320.27539999998</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7280562.283900001</v>
+        <v>98572.70675999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>85616.864</v>
+        <v>102442.97822</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>207908.35276</v>
+        <v>208135.9578</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>300073.2527</v>
+        <v>300073.2527000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1366585.58426</v>
+        <v>214511.15686</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>295808.54135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>310441.41482</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>447125.747</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>134219.76518</v>
@@ -1193,34 +1129,39 @@
         <v>168620.60797</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>225392.9238</v>
+        <v>225421.2692</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>214157.50305</v>
+        <v>214219.4167</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>274151.22185</v>
+        <v>274331.51805</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>198470.40655</v>
+        <v>201373.84928</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>188203.1662</v>
+        <v>188205.53566</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>165972.91763</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>235078.16104</v>
+        <v>235078.1610400001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>279306.28983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>279431.21543</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>347316.486</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>160689.56753</v>
@@ -1232,73 +1173,83 @@
         <v>334336.6399300001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>380903.7962400001</v>
+        <v>381808.43907</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>448808.00298</v>
+        <v>449350.03839</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>451830.11373</v>
+        <v>453940.9132</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>289365.4751</v>
+        <v>289629.55609</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>246736.49092</v>
+        <v>246780.8009</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>356499.99845</v>
+        <v>356499.9984500001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>695158.0492799999</v>
+        <v>695293.9904700001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>684282.9578300001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>684494.6353799999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>274855.689</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>13858245.53679</v>
+        <v>13859685.51673</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>17704515.26268</v>
+        <v>17704542.76304</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>23775981.64506</v>
+        <v>23780158.21874</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>25586458.66833</v>
+        <v>25664273.51347</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>27630138.42248</v>
+        <v>28148809.55695</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>27525671.88024</v>
+        <v>28665609.90176</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>27592379.20486</v>
+        <v>28504242.49522</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>29900230.33166</v>
+        <v>29935829.21297</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>41461611.15434</v>
+        <v>41461611.15434001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>54122811.67208</v>
+        <v>54217958.45313001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>64726906.85941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>65327252.37686</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>82042455.43700001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>9559853.78951</v>
@@ -1307,295 +1258,330 @@
         <v>12123098.83975</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>15217093.7568</v>
+        <v>15218620.19045</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>16467063.64706</v>
+        <v>16531029.05967</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>18407349.4307</v>
+        <v>18793631.80277</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19442639.8329</v>
+        <v>20112956.42772</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20353581.55358</v>
+        <v>20974522.62950001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>22371000.22526</v>
+        <v>22399993.70614</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>29923644.97821</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>35774994.24783999</v>
+        <v>35865317.06937</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>40781084.37980001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>41322031.44817</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>48974273.308</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6107750.63639</v>
+        <v>6107750.636390001</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>7719395.62969</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9735006.600300001</v>
+        <v>9736102.924980002</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>11241446.88922</v>
+        <v>11289879.04222</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12511422.34908</v>
+        <v>12595796.68264</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>12703969.63375</v>
+        <v>13146600.5855</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13477740.78912</v>
+        <v>13784587.60572</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>14689042.5592</v>
+        <v>14704227.15133</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>19127499.13719</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24687636.93017001</v>
+        <v>24694102.87905</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28487724.81161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>28678260.79979</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>33864397.843</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1651294.67065</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1934395.056959999</v>
+        <v>1934395.05696</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2387964.18702</v>
+        <v>2388169.81841</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2540729.001939999</v>
+        <v>2555735.176940001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2966911.75479</v>
+        <v>3031415.83332</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3129458.337800001</v>
+        <v>3227802.230359999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3563557.59421</v>
+        <v>3710831.51303</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3880093.43002</v>
+        <v>3883812.7131</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5650192.630219999</v>
+        <v>5650192.630220001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4990113.93992</v>
+        <v>5009720.977740002</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5424988.25166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5462629.22988</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7365982.561</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1727611.85622</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2381855.74715</v>
+        <v>2381855.747150001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3002061.73984</v>
+        <v>3002286.21742</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2496293.270370001</v>
+        <v>2496820.35498</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2852355.96065</v>
+        <v>3089603.45142</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3502976.91193</v>
+        <v>3631783.92125</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3186951.41797</v>
+        <v>3345951.23575</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3611466.86066</v>
+        <v>3620958.1539</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4855120.42659</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5765036.186519999</v>
+        <v>5829232.84959</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6556552.67563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6867961.55223</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7446718.16</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>73196.62624999999</v>
+        <v>73196.62625</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>87452.40595</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>92061.22963999999</v>
+        <v>92061.22964000001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>188594.48553</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>76659.36618</v>
+        <v>76815.83539000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>106234.94942</v>
+        <v>106769.69061</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>125331.75228</v>
+        <v>133152.275</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>190397.37538</v>
+        <v>190995.68781</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>290832.78421</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>332207.19123</v>
+        <v>332260.36299</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>311818.6409000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>313179.86627</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>297174.744</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4298391.747280001</v>
+        <v>4299831.727220001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5581416.42293</v>
+        <v>5581443.923290001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>8558887.888259999</v>
+        <v>8561538.028290002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>9119395.021270003</v>
+        <v>9133244.4538</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9222788.99178</v>
+        <v>9355177.754179999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8083032.04734</v>
+        <v>8552653.47404</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7238797.65128</v>
+        <v>7529719.865719999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>7529230.1064</v>
+        <v>7535835.50683</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>11537966.17613</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>18347817.42424</v>
+        <v>18352641.38376</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>23945822.47961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>24005220.92869</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>33068182.129</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2509626.288820001</v>
+        <v>2511206.178849999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2957236.67335</v>
+        <v>2957442.03313</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4068326.350869999</v>
+        <v>4069625.691250001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4199931.197029999</v>
+        <v>4217161.648469999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4491390.375980001</v>
+        <v>4538543.08074</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5397313.7298</v>
+        <v>5495018.772969999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5525396.807880001</v>
+        <v>5750675.423849999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5345893.40234</v>
+        <v>5351648.93426</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6441108.85566</v>
+        <v>6441108.855659999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8237420.042389999</v>
+        <v>8247581.043040001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12203898.05242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12232476.88598</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12871752.777</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>422736.0665</v>
+        <v>422736.0664999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>387355.82103</v>
+        <v>387355.8210299999</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>891055.8165399998</v>
+        <v>891302.9056500001</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>596174.05885</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>499156.7753699999</v>
+        <v>500298.2477299999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>931349.1375599999</v>
+        <v>932657.1414899997</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1053782.10628</v>
+        <v>1056439.36335</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>467315.96559</v>
+        <v>467316.06009</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>709478.77996</v>
@@ -1604,169 +1590,194 @@
         <v>1277407.37451</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4264062.67514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4263757.90019</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3821677.658</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>575878.0160899999</v>
+        <v>575878.01609</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>811566.5840599999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>952760.0146100002</v>
+        <v>951726.76581</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1084110.92218</v>
+        <v>1094725.98949</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1231564.37069</v>
+        <v>1246255.07777</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1368634.93659</v>
+        <v>1392648.51582</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1412912.78018</v>
+        <v>1462051.35502</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1506087.55195</v>
+        <v>1509126.88482</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2041832.36002</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2472429.48784</v>
+        <v>2473190.3728</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2645688.71156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2654928.344</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2987696.433</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1511012.20623</v>
+        <v>1512592.09626</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1758314.26826</v>
+        <v>1758519.62804</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2224510.51972</v>
+        <v>2226596.01979</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2519646.216</v>
+        <v>2526261.60013</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2760669.229920001</v>
+        <v>2791989.75524</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3097329.65565</v>
+        <v>3169713.11566</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3058701.92142</v>
+        <v>3232184.70548</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3372489.8848</v>
+        <v>3375205.98935</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3689797.71568</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4487583.18004</v>
+        <v>4496983.295729999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5294146.665719999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5313790.641790001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6062378.686</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1788765.45846</v>
+        <v>1788625.54837</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2624179.74958</v>
+        <v>2624001.890159999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4490561.537389999</v>
+        <v>4491912.337039999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4919463.824240001</v>
+        <v>4916082.805329999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4731398.615800002</v>
+        <v>4816634.67344</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2685718.31754</v>
+        <v>3057634.701069999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1713400.8434</v>
+        <v>1779044.44187</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2183336.70406</v>
+        <v>2184186.57257</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5096857.32047</v>
+        <v>5096857.320470001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10110397.38185</v>
+        <v>10105060.34072</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11741924.42719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11772744.04271</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>20196429.352</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1514185.91348</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2737400.49831</v>
+        <v>2737400.498310001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4313770.70396</v>
+        <v>4313596.38404</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3677891.80786</v>
+        <v>3725837.47699</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5120733.372439999</v>
+        <v>5166071.050729999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5521981.22154</v>
+        <v>5680451.609870001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11910085.09034</v>
+        <v>12059380.43218</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11551839.79807</v>
+        <v>11553800.84836</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>10012887.04482</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>44057727.70793</v>
+        <v>44107502.75159999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21992691.68763</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>22017817.89336</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>52341106.566</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>452028.18777</v>
@@ -1778,34 +1789,39 @@
         <v>785787.27364</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>713434.8158400001</v>
+        <v>713435.83374</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1063606.89202</v>
+        <v>1063843.33824</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>759613.41677</v>
+        <v>759613.4167699999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>371872.65003</v>
+        <v>372855.99479</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>608290.04262</v>
+        <v>608290.0426199998</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>504971.0926499999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>940155.0311100001</v>
+        <v>941380.0311100001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>143383.93705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>143621.24383</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>280534.54</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>42124.24124</v>
@@ -1817,7 +1833,7 @@
         <v>112074.118</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>537161.89044</v>
+        <v>537161.8904400001</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>362298.43162</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>333815.8376799999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>635661.051</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>206203.98095</v>
@@ -1856,37 +1877,42 @@
         <v>313323.42704</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>492547.8136800001</v>
+        <v>492862.1678500001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>409644.9636700001</v>
+        <v>411101.18901</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>451659.6298699999</v>
+        <v>455924.21595</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>447429.57733</v>
+        <v>470905.1750099999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>636582.8600000001</v>
+        <v>637197.6084299999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>900678.6289200002</v>
+        <v>900678.6289199999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1658257.90615</v>
+        <v>1658305.77006</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2247844.76661</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2249393.76881</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2146658.595</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2663.226</v>
+        <v>2663.226000000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>2913.65903</v>
@@ -1898,13 +1924,13 @@
         <v>11085.34753</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5384.259410000001</v>
+        <v>5384.25941</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>3034.34159</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2335.84963</v>
+        <v>2346.87426</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>13848.62351</v>
@@ -1916,19 +1942,24 @@
         <v>22047.49299</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14777.3673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>14898.54619</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3870.241</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>31718.9178</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>161070.6801199999</v>
+        <v>161070.68012</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>17658.3606</v>
@@ -1943,25 +1974,30 @@
         <v>25948.36071</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>26192.32381</v>
+        <v>26587.63537</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>43973.93815</v>
+        <v>43975.93815</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>79784.99370000002</v>
+        <v>79784.99370000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>46854.43243</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>51187.68522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>51187.68522000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>69644.50999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>91561.19064</v>
@@ -1976,70 +2012,80 @@
         <v>5628.91187</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>8120.54551</v>
+        <v>8120.547709999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>395975.89181</v>
+        <v>395995.05499</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>18193.32589</v>
+        <v>18340.21030000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>71553.65078</v>
+        <v>71557.14323</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>26984.85151</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>36940.63553</v>
+        <v>36940.63552999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>191225.4102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>191228.6542</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>306492.799</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>442258.70814</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>906461.7441799999</v>
+        <v>906461.74418</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>2054536.14739</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>980899.8983100001</v>
+        <v>1001349.31488</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2426672.58554</v>
+        <v>2443711.71467</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3279656.23806</v>
+        <v>3424348.38288</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>10375116.35439</v>
+        <v>10472606.78042</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9366876.206219997</v>
+        <v>9367666.073589997</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>7178618.6069</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>37740613.03456</v>
+        <v>37789194.19814999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16174667.73331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>16197750.72594</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>46666532.891</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>14934.66609</v>
@@ -2060,7 +2106,7 @@
         <v>11553.69668</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5304.146680000001</v>
+        <v>5304.14668</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2214.78803</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4104.09243</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>136722.263</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>165.10497</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>2341.62042</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>900.759</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>230527.68988</v>
@@ -2126,40 +2182,45 @@
         <v>705579.44066</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>893715.64633</v>
+        <v>893541.3264099999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>911128.9781000001</v>
+        <v>938309.8585900002</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>780039.62711</v>
+        <v>806645.5025100001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>471193.2044</v>
+        <v>480687.69865</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>652961.1432</v>
+        <v>679753.89597</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>789784.2657400001</v>
+        <v>790335.2077799999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1231640.28341</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1720483.85547</v>
+        <v>1720404.87164</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2829343.23741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2829475.718640001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2094088.917</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>714628.4499499999</v>
+        <v>714628.44995</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>1355376.14209</v>
@@ -2168,34 +2229,39 @@
         <v>2239293.56052</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1588338.50286</v>
+        <v>1605044.79038</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4580615.082540001</v>
+        <v>4615157.66925</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3800695.47202</v>
+        <v>3930784.61073</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10069418.71792</v>
+        <v>10274620.34543</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10748967.23911</v>
+        <v>10750117.1874</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>8553666.714159999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>38958439.6756</v>
+        <v>39021477.64017</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>18005297.03729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>18028047.89006</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>48291728.11</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>11239.48121</v>
@@ -2204,19 +2270,19 @@
         <v>22684.22436</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5959.122590000001</v>
+        <v>5959.12259</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10343.70328</v>
+        <v>10343.79295</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11647.90631</v>
+        <v>11657.39269</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>11166.26183</v>
+        <v>11221.22848</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>15851.31539</v>
+        <v>15926.8613</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>13807.4251</v>
@@ -2225,19 +2291,24 @@
         <v>25796.6783</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>20153.59013</v>
+        <v>20156.1325</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>24663.66655</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>9180.566000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>51379.86681000001</v>
+        <v>51379.86681</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>24537.35325</v>
@@ -2246,19 +2317,19 @@
         <v>30941.21753</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>80187.20821000001</v>
+        <v>82613.07306999998</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>46567.02167</v>
+        <v>46632.97667</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>46212.95606999999</v>
+        <v>46488.75719</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>71705.56330000002</v>
+        <v>73660.49116000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>113406.9843</v>
+        <v>113416.4843</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>128207.04492</v>
@@ -2267,13 +2338,18 @@
         <v>182987.07193</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>407873.35587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>407871.25587</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>133614.826</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>51350.14823000001</v>
@@ -2282,16 +2358,16 @@
         <v>27975.32635</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>77856.20763</v>
+        <v>77856.20762999998</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>832.6429899999999</v>
+        <v>832.6429900000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6451.839559999999</v>
+        <v>6451.83956</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3134.41533</v>
+        <v>3291.76645</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>20874.8017</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>63765.49969</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>195858.245</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>381693.24261</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>730111.44369</v>
+        <v>730111.4436900002</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1652603.99909</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1073115.97123</v>
+        <v>1085507.22905</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1806545.94447</v>
+        <v>1840355.28537</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2828820.00663</v>
+        <v>2957579.40077</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9004646.584899999</v>
+        <v>9204383.92722</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9460308.857590001</v>
+        <v>9461306.587040002</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>6704321.834549999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>36796601.48298001</v>
+        <v>36859636.71728</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>16493093.79741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>16515754.70984</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>46275186.192</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>329.57698</v>
@@ -2384,13 +2470,18 @@
         <v>6337.64034</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>4804.93678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>4804.936779999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>66323.94100000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14052.6581</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>11.211</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>204583.47601</v>
@@ -2438,76 +2534,86 @@
         <v>533441.2959800001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>441740.02961</v>
+        <v>441740.0296100001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>409376.5454</v>
+        <v>411265.62057</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2686964.19753</v>
+        <v>2687622.001959999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>888398.8031200001</v>
+        <v>889240.4287999998</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>939349.94063</v>
+        <v>942783.7520500001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1142066.09772</v>
+        <v>1142208.81656</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1661253.87636</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1887852.20675</v>
+        <v>1887852.39465</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1011095.78099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1011187.82133</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1611553.129</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>392470.24815</v>
+        <v>392470.2481500001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>301510.93141</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>445280.06513</v>
+        <v>445393.7559200001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>516749.61409</v>
+        <v>539021.11525</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>603142.2625600002</v>
+        <v>655179.67374</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>688471.24902</v>
+        <v>711286.49756</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1227466.51729</v>
+        <v>1293474.17947</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1602216.06202</v>
+        <v>1602586.1661</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2184811.86998</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3547095.40727</v>
+        <v>3547313.12279</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3554912.6208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3565040.09198</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4332134.729</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>296801.10758</v>
@@ -2516,43 +2622,48 @@
         <v>246530.16295</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>312385.86361</v>
+        <v>312499.5544</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>346758.58251</v>
+        <v>369030.08367</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>514125.3090599999</v>
+        <v>566162.7202399999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>570621.0369500001</v>
+        <v>580838.6095500001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>823095.40711</v>
+        <v>888902.26291</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1016157.08332</v>
+        <v>1016527.1874</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1229970.16066</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1959608.15655</v>
+        <v>1959825.87207</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2146414.18983</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2156541.66101</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2395702.307</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>95669.14056999999</v>
+        <v>95669.14057</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>54980.76846</v>
+        <v>54980.76845999999</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>132894.20152</v>
@@ -2561,19 +2672,19 @@
         <v>169991.03158</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>89016.9535</v>
+        <v>89016.95349999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>117850.21207</v>
+        <v>130447.88801</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>404371.11018</v>
+        <v>404571.91656</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>586058.9787000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>954841.7093200001</v>
+        <v>954841.70932</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1587487.25072</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1408498.43097</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1936432.422</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2195852.673840001</v>
+        <v>2195712.76375</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3704693.17439</v>
+        <v>3704515.31497</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6119758.615700001</v>
+        <v>6120821.40464</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6492267.515149998</v>
+        <v>6497854.37669</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4668374.64314</v>
+        <v>4712368.381179997</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3718532.81804</v>
+        <v>4096015.202649999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2326600.698530002</v>
+        <v>2270330.349150001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1383993.201</v>
+        <v>1385284.067429999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4371265.781149999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>11662590.00691</v>
+        <v>11643772.32936</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12174406.45673</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12197473.95403</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>19913673.079</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>231240.28934</v>
@@ -2633,37 +2754,42 @@
         <v>227082.53381</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>267915.26592</v>
+        <v>267922.89303</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>623327.1754900001</v>
+        <v>624897.4184200001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>318866.63157</v>
+        <v>331018.11527</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>548511.32996</v>
+        <v>561788.49976</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>426566.96047</v>
+        <v>445179.45878</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3615038.68747</v>
+        <v>3616437.43738</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1385851.67266</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>720738.79035</v>
+        <v>730639.0154</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1107291.97253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1109788.84152</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>992864.191</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4699.176109999999</v>
@@ -2675,34 +2801,39 @@
         <v>24992.81466</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>23055.21001999999</v>
+        <v>23055.21002</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>31538.77771</v>
+        <v>31601.86436</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>28661.51242</v>
+        <v>29679.56017</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>44479.63116</v>
+        <v>44567.56206</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>18124.0831</v>
+        <v>18757.47019</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>27176.91815</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>96800.49449</v>
+        <v>96875.78916</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>316797.31499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>316579.94984</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>70406.97100000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>226541.11323</v>
@@ -2711,79 +2842,89 @@
         <v>214794.38118</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>242922.45126</v>
+        <v>242930.07837</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>600271.9654700002</v>
+        <v>601842.2084</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>287327.85386</v>
+        <v>299416.25091</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>519849.8175400001</v>
+        <v>532108.9395900001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>382087.32931</v>
+        <v>400611.8967200001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3596914.604369999</v>
+        <v>3597679.96719</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1358674.75451</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>623938.2958599998</v>
+        <v>633763.22624</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>790494.6575399999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>793208.8916800001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>922457.22</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>362018.8980300001</v>
+        <v>362042.0004500001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>330629.9595700001</v>
+        <v>330629.95957</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>913087.6003300002</v>
+        <v>913110.48432</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>647373.17654</v>
+        <v>649637.5990899999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1693203.6742</v>
+        <v>1698360.71582</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1072991.27991</v>
+        <v>1293896.17516</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1062856.54264</v>
+        <v>1098165.07088</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2952453.99184</v>
+        <v>2953436.7887</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1638269.87223</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2500679.183350001</v>
+        <v>2500815.82444</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1705899.77408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1707282.62346</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1475814.84</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>79709.53297999999</v>
+        <v>79709.53298</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>102287.10779</v>
@@ -2795,16 +2936,16 @@
         <v>222400.30555</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>209413.03982</v>
+        <v>211171.77138</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>323269.05941</v>
+        <v>323952.70691</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>403395.48884</v>
+        <v>417764.7988700001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>398667.26439</v>
+        <v>399045.14917</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>382270.15024</v>
@@ -2813,205 +2954,233 @@
         <v>750030.0084699999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>962480.98009</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>962688.3734400001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>796114.7290000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>125537.55909</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>78526.04868999998</v>
+        <v>78526.04869</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>225193.5627</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>133295.64118</v>
+        <v>134098.5339</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>142323.0866</v>
+        <v>142402.63268</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>128925.60376</v>
+        <v>130265.72312</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>194236.09973</v>
+        <v>195755.65473</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>180568.42108</v>
+        <v>180624.69492</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>157464.27671</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>94661.83934999999</v>
+        <v>94677.24522000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>193506.25706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>193585.49132</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>139392.119</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>156771.80596</v>
+        <v>156794.90838</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>149816.80309</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>569032.1386999999</v>
+        <v>569055.0226900001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>291677.2298099999</v>
+        <v>293138.7596400001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1341467.54778</v>
+        <v>1344786.31176</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>620796.6167400001</v>
+        <v>839677.7451299999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>465224.95407</v>
+        <v>484644.6172799999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2373218.30637</v>
+        <v>2373766.94461</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1098535.44528</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1655987.33553</v>
+        <v>1656108.57075</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>549912.5369300001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>551008.7587</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>540307.992</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2065074.06515</v>
+        <v>2064911.05264</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>3601145.74863</v>
+        <v>3600967.88921</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5474586.28129</v>
+        <v>5475633.81335</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6468221.5141</v>
+        <v>6473114.196020001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3294037.60051</v>
+        <v>3345025.78063</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3194052.86809</v>
+        <v>3363907.52725</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1690311.11636</v>
+        <v>1617344.73705</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2046577.89663</v>
+        <v>2048284.71611</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>4118847.58158</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9882649.613910003</v>
+        <v>9873595.52032</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11575798.65518</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11599980.17209</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>19430722.43</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>394520.41143</v>
+        <v>394520.4114299999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>674252.0203899998</v>
+        <v>674252.02039</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1020079.37941</v>
+        <v>1020109.46809</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1036285.04516</v>
+        <v>1036298.12507</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1073436.72593</v>
+        <v>1094233.73675</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>648376.3175899999</v>
+        <v>674822.64102</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>729074.94258</v>
+        <v>753109.0291999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1153049.75732</v>
+        <v>1153767.32912</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1131292.48904</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2874741.01808</v>
+        <v>2874873.56673</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2162755.65902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2167478.594</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3005175.711</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1670553.65372</v>
+        <v>1670390.64121</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2926893.72824</v>
+        <v>2926715.86882</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4454506.901879999</v>
+        <v>4455524.345259999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5431936.468939999</v>
+        <v>5436816.07095</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2220600.874580001</v>
+        <v>2250792.04388</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2545676.5505</v>
+        <v>2689084.886230001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>961236.1737799998</v>
+        <v>864235.70785</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>893528.1393100006</v>
+        <v>894517.3869899999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2987555.092540001</v>
+        <v>2987555.09254</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7007908.59583</v>
+        <v>6998721.95359</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9413042.996160001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9432501.578090001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>16425546.719</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4620</v>
+        <v>4628</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4912</v>
+        <v>4932</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4997</v>
+        <v>5032</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4883</v>
+        <v>4949</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5099</v>
+        <v>5136</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>5358</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5424</v>
+        <v>5590</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5733</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>